--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Block Bootstrapping_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Block Bootstrapping_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.665713940848634</v>
+        <v>0.6252526207601822</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.6645563381915951</v>
+        <v>0.6328948958871112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.6667156546733405</v>
+        <v>0.6351069657946222</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.6615292813969161</v>
+        <v>0.6296112109136516</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.6620003676271295</v>
+        <v>0.6257982614985358</v>
       </c>
     </row>
   </sheetData>
